--- a/documentation/3_2_Modele_PlanningJeudiVendredi.xlsx
+++ b/documentation/3_2_Modele_PlanningJeudiVendredi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/leon_fejzaj_studentfr_ch/Documents/011.EMF (EXERCICE)/3eme annee (2025-2026)/306/306-G3-SpeleoThink/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="253" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30AD2C4A-7A2D-47B7-860F-715E75ECC380}"/>
+  <xr:revisionPtr revIDLastSave="254" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E1225C5-C0CE-4D71-96B3-7B1043E62383}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1356,8 +1356,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>7326</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>8282</xdr:rowOff>
     </xdr:to>
@@ -1375,7 +1375,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="3866477" y="688731"/>
-          <a:ext cx="6288637" cy="2448147"/>
+          <a:ext cx="6867465" cy="2448147"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
